--- a/Mapping_Spreadsheets/04_Associations.xlsx
+++ b/Mapping_Spreadsheets/04_Associations.xlsx
@@ -79,6 +79,9 @@
     <t>nc:PersonType</t>
   </si>
   <si>
+    <t>element</t>
+  </si>
+  <si>
     <t>A human being.</t>
   </si>
   <si>
@@ -295,6 +298,9 @@
     <t>An association between a person and a charge issued to that person.</t>
   </si>
   <si>
+    <t>0..1</t>
+  </si>
+  <si>
     <t>reference</t>
   </si>
   <si>
@@ -310,9 +316,6 @@
     <t>A formal allegation that a specific person has committed a specific offense.</t>
   </si>
   <si>
-    <t>0..1</t>
-  </si>
-  <si>
     <t>j:PersonChargeAssociation/j:Charge</t>
   </si>
   <si>
@@ -320,9 +323,6 @@
   </si>
   <si>
     <t>A committed offense.</t>
-  </si>
-  <si>
-    <t>element</t>
   </si>
   <si>
     <t>Charge Description</t>
@@ -1084,7 +1084,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1114,7 +1113,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1140,7 +1138,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1166,7 +1163,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1192,7 +1188,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1218,7 +1213,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1244,7 +1238,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1270,7 +1263,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1296,7 +1288,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1322,7 +1313,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1373,7 +1363,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1399,7 +1388,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1425,7 +1413,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1451,7 +1438,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1477,7 +1463,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1503,7 +1488,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1529,7 +1513,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1555,7 +1538,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1581,7 +1563,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1607,7 +1588,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1655,7 +1635,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1685,7 +1664,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1711,7 +1689,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1737,7 +1714,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1763,7 +1739,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1789,7 +1764,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1815,7 +1789,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1841,7 +1814,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1867,7 +1839,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1893,7 +1864,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2066,9 +2036,11 @@
       <c r="H4" s="23"/>
       <c r="I4" s="23"/>
       <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
+      <c r="K4" t="s" s="22">
+        <v>22</v>
+      </c>
       <c r="L4" t="s" s="24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M4" t="s" s="22">
         <v>19</v>
@@ -2084,22 +2056,22 @@
         <v>17</v>
       </c>
       <c r="B5" t="s" s="19">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s" s="18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s" s="19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s" s="20">
         <v>19</v>
       </c>
       <c r="F5" t="s" s="21">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s" s="22">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5" s="23"/>
       <c r="I5" t="s" s="22">
@@ -2108,7 +2080,7 @@
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
       <c r="L5" t="s" s="24">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M5" t="s" s="22">
         <v>19</v>
@@ -2116,7 +2088,7 @@
       <c r="N5" s="23"/>
       <c r="O5" s="23"/>
       <c r="P5" t="s" s="25">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
@@ -2126,17 +2098,17 @@
       <c r="D6" s="17"/>
       <c r="E6" s="28"/>
       <c r="F6" t="s" s="21">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
       <c r="I6" t="s" s="22">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
       <c r="L6" t="s" s="24">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M6" t="s" s="22">
         <v>19</v>
@@ -2144,7 +2116,7 @@
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
       <c r="P6" t="s" s="25">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
@@ -2154,25 +2126,25 @@
       <c r="D7" s="17"/>
       <c r="E7" s="28"/>
       <c r="F7" t="s" s="21">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s" s="22">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
       <c r="J7" t="s" s="22">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" t="s" s="24">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="23"/>
       <c r="N7" s="23"/>
       <c r="O7" s="23"/>
       <c r="P7" t="s" s="25">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
@@ -2182,10 +2154,10 @@
       <c r="D8" s="17"/>
       <c r="E8" s="28"/>
       <c r="F8" t="s" s="21">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s" s="22">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" t="s" s="22">
@@ -2194,7 +2166,7 @@
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
       <c r="L8" t="s" s="24">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M8" t="s" s="22">
         <v>19</v>
@@ -2202,7 +2174,7 @@
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
       <c r="P8" t="s" s="25">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
@@ -2210,31 +2182,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="s" s="19">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s" s="18">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s" s="19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s" s="20">
         <v>19</v>
       </c>
       <c r="F9" t="s" s="21">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s" s="22">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H9" s="23"/>
       <c r="I9" t="s" s="22">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
       <c r="L9" t="s" s="24">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M9" t="s" s="22">
         <v>19</v>
@@ -2242,7 +2214,7 @@
       <c r="N9" s="23"/>
       <c r="O9" s="23"/>
       <c r="P9" t="s" s="25">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
@@ -2250,39 +2222,39 @@
         <v>17</v>
       </c>
       <c r="B10" t="s" s="19">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s" s="18">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s" s="19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s" s="20">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s" s="21">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s" s="22">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" t="s" s="22">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
       <c r="L10" t="s" s="24">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M10" t="s" s="22">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N10" s="23"/>
       <c r="O10" s="23"/>
       <c r="P10" t="s" s="25">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
@@ -2290,31 +2262,31 @@
         <v>17</v>
       </c>
       <c r="B11" t="s" s="19">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s" s="18">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s" s="19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s" s="20">
         <v>19</v>
       </c>
       <c r="F11" t="s" s="21">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G11" t="s" s="22">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" s="23"/>
       <c r="I11" t="s" s="22">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
       <c r="L11" t="s" s="24">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M11" t="s" s="22">
         <v>19</v>
@@ -2322,16 +2294,16 @@
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
       <c r="P11" t="s" s="25">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="16">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" t="s" s="18">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s" s="19">
         <v>1</v>
@@ -2340,17 +2312,17 @@
         <v>19</v>
       </c>
       <c r="F12" t="s" s="21">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s" s="22">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
       <c r="L12" t="s" s="24">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M12" t="s" s="22">
         <v>19</v>
@@ -2358,7 +2330,7 @@
       <c r="N12" s="23"/>
       <c r="O12" s="23"/>
       <c r="P12" t="s" s="25">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
@@ -2368,19 +2340,19 @@
       <c r="D13" s="17"/>
       <c r="E13" s="28"/>
       <c r="F13" t="s" s="21">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s" s="22">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H13" s="23"/>
       <c r="I13" t="s" s="22">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
       <c r="L13" t="s" s="24">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M13" t="s" s="22">
         <v>19</v>
@@ -2388,7 +2360,7 @@
       <c r="N13" s="23"/>
       <c r="O13" s="23"/>
       <c r="P13" t="s" s="25">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
@@ -2398,17 +2370,17 @@
       <c r="D14" s="17"/>
       <c r="E14" s="28"/>
       <c r="F14" t="s" s="21">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
       <c r="I14" t="s" s="22">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
       <c r="L14" t="s" s="24">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M14" t="s" s="22">
         <v>19</v>
@@ -2416,54 +2388,54 @@
       <c r="N14" s="23"/>
       <c r="O14" s="23"/>
       <c r="P14" t="s" s="25">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="16">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s" s="19">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s" s="18">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s" s="19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s" s="20">
         <v>19</v>
       </c>
       <c r="F15" t="s" s="21">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s" s="22">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="J15" t="s" s="22">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K15" s="23"/>
       <c r="L15" t="s" s="24">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="23"/>
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
       <c r="P15" t="s" s="25">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="16">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" t="s" s="18">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s" s="19">
         <v>1</v>
@@ -2485,16 +2457,16 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="16">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s" s="19">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s" s="18">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s" s="19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s" s="20">
         <v>19</v>
@@ -2513,16 +2485,16 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="16">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s" s="19">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s" s="18">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s" s="19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s" s="20">
         <v>19</v>
@@ -2541,17 +2513,17 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="16">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" t="s" s="18">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s" s="19">
         <v>1</v>
       </c>
       <c r="E19" t="s" s="20">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="23"/>
@@ -2567,16 +2539,16 @@
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="16">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s" s="19">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s" s="18">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s" s="19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E20" t="s" s="20">
         <v>19</v>
@@ -2595,16 +2567,16 @@
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="16">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s" s="19">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s" s="18">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s" s="19">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s" s="20">
         <v>19</v>
@@ -2623,16 +2595,16 @@
     </row>
     <row r="22" ht="32.05" customHeight="1">
       <c r="A22" t="s" s="16">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s" s="19">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s" s="18">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s" s="19">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E22" t="s" s="20">
         <v>19</v>
@@ -2651,16 +2623,16 @@
     </row>
     <row r="23" ht="32.05" customHeight="1">
       <c r="A23" t="s" s="16">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s" s="19">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s" s="18">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s" s="19">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E23" t="s" s="20">
         <v>19</v>
@@ -2679,16 +2651,16 @@
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" t="s" s="16">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s" s="19">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s" s="18">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s" s="19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E24" t="s" s="20">
         <v>19</v>
@@ -2712,25 +2684,25 @@
       <c r="D25" s="17"/>
       <c r="E25" s="28"/>
       <c r="F25" t="s" s="32">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G25" t="s" s="33">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H25" s="34"/>
       <c r="I25" s="34"/>
       <c r="J25" s="34"/>
       <c r="K25" s="34"/>
       <c r="L25" t="s" s="35">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M25" t="s" s="33">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="N25" s="34"/>
       <c r="O25" s="34"/>
       <c r="P25" t="s" s="36">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" ht="20.05" customHeight="1">
@@ -2747,14 +2719,14 @@
       </c>
       <c r="H26" s="34"/>
       <c r="I26" t="s" s="33">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J26" s="34"/>
       <c r="K26" t="s" s="33">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L26" t="s" s="35">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M26" t="s" s="33">
         <v>19</v>
@@ -2762,7 +2734,7 @@
       <c r="N26" s="34"/>
       <c r="O26" s="34"/>
       <c r="P26" t="s" s="36">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" ht="20.05" customHeight="1">
@@ -2772,72 +2744,72 @@
       <c r="D27" s="17"/>
       <c r="E27" s="28"/>
       <c r="F27" t="s" s="32">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G27" t="s" s="33">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H27" s="34"/>
       <c r="I27" t="s" s="33">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J27" s="34"/>
       <c r="K27" t="s" s="33">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L27" t="s" s="35">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M27" t="s" s="33">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="N27" s="34"/>
       <c r="O27" s="34"/>
       <c r="P27" t="s" s="36">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" t="s" s="16">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B28" s="17"/>
       <c r="C28" t="s" s="18">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s" s="19">
         <v>1</v>
       </c>
       <c r="E28" t="s" s="20">
+        <v>95</v>
+      </c>
+      <c r="F28" t="s" s="32">
+        <v>98</v>
+      </c>
+      <c r="G28" t="s" s="33">
         <v>99</v>
-      </c>
-      <c r="F28" t="s" s="32">
-        <v>96</v>
-      </c>
-      <c r="G28" t="s" s="33">
-        <v>97</v>
       </c>
       <c r="H28" s="34"/>
       <c r="I28" s="34"/>
       <c r="J28" s="34"/>
       <c r="K28" t="s" s="33">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="L28" t="s" s="35">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M28" t="s" s="33">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="N28" s="34"/>
       <c r="O28" s="34"/>
       <c r="P28" t="s" s="36">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" t="s" s="16">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B29" t="s" s="19">
         <v>104</v>
@@ -2846,7 +2818,7 @@
         <v>105</v>
       </c>
       <c r="D29" t="s" s="19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E29" t="s" s="20">
         <v>19</v>
@@ -2859,7 +2831,7 @@
       </c>
       <c r="H29" s="34"/>
       <c r="I29" t="s" s="33">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J29" s="34"/>
       <c r="K29" s="34"/>
@@ -2877,7 +2849,7 @@
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" t="s" s="16">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B30" t="s" s="19">
         <v>110</v>
@@ -2886,7 +2858,7 @@
         <v>111</v>
       </c>
       <c r="D30" t="s" s="19">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E30" t="s" s="20">
         <v>19</v>
@@ -2899,7 +2871,7 @@
       </c>
       <c r="H30" s="34"/>
       <c r="I30" t="s" s="33">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J30" s="34"/>
       <c r="K30" s="34"/>
@@ -2917,7 +2889,7 @@
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" t="s" s="37">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B31" t="s" s="38">
         <v>116</v>
@@ -2926,7 +2898,7 @@
         <v>117</v>
       </c>
       <c r="D31" t="s" s="38">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E31" t="s" s="40">
         <v>19</v>
